--- a/biology/Zoologie/Hainosaurus/Hainosaurus.xlsx
+++ b/biology/Zoologie/Hainosaurus/Hainosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hainosaurus (de la rivière Haine ou de la province de Hainaut (Belgique), et saurus, lézard) est un genre éteint de « reptiles », de la famille des Mosasauridae (mosasaures) dont on connait deux espèces : l'espèce type, Hainosaurus bernardi trouvée en Europe (l'épithète spécifique est dédiée à Léopold Bernard, le propriétaire belge de la carrière de craie où un premier fossile a été découvert) et Hainosaurus neumilleri Martin, 2007 espèce trouvée en Amérique du Nord.
 Hainosaurus bernardi a fréquenté les mers d'Europe pendant le Crétacé supérieur (de 99,6 à 66 Ma).
-Bien que sa taille ait été revue à plusieurs reprises, Hainosaurus est considéré (avec Tylosaurus proriger et Mosasaurus hoffmanni) comme l'un des plus grands mosasauridés, sa longueur ayant été estimée à 13 m[1].
+Bien que sa taille ait été revue à plusieurs reprises, Hainosaurus est considéré (avec Tylosaurus proriger et Mosasaurus hoffmanni) comme l'un des plus grands mosasauridés, sa longueur ayant été estimée à 13 m.
 </t>
         </is>
       </c>
